--- a/cqc-support/src/main/webapp/resources/template/用户导入模板.xlsx
+++ b/cqc-support/src/main/webapp/resources/template/用户导入模板.xlsx
@@ -1,8 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18625"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20827"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5731DFCC-25BE-4E2C-A819-CA2AE831F2CD}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>用户名</t>
   </si>
@@ -35,6 +36,10 @@
   </si>
   <si>
     <t>角色编码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>科室</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -454,10 +459,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -465,12 +470,12 @@
     <col min="1" max="1" width="12.453125" customWidth="1"/>
     <col min="2" max="2" width="13.6328125" customWidth="1"/>
     <col min="3" max="3" width="15.90625" customWidth="1"/>
-    <col min="4" max="4" width="14" customWidth="1"/>
-    <col min="5" max="5" width="13.6328125" customWidth="1"/>
-    <col min="6" max="6" width="16.453125" customWidth="1"/>
+    <col min="4" max="5" width="14" customWidth="1"/>
+    <col min="6" max="6" width="13.6328125" customWidth="1"/>
+    <col min="7" max="7" width="16.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -484,17 +489,20 @@
         <v>4</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F2" s="1"/>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G2" s="1"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F4" s="1"/>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G4" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/cqc-support/src/main/webapp/resources/template/用户导入模板.xlsx
+++ b/cqc-support/src/main/webapp/resources/template/用户导入模板.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20827"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5731DFCC-25BE-4E2C-A819-CA2AE831F2CD}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E6D2F3A-CFDE-4AEB-A6E3-1E71A084A64D}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>用户名</t>
   </si>
@@ -42,12 +42,16 @@
     <t>科室</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>上级用户名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -72,11 +76,21 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -110,7 +124,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -119,6 +133,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -459,23 +476,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.453125" customWidth="1"/>
-    <col min="2" max="2" width="13.6328125" customWidth="1"/>
+    <col min="2" max="2" width="17.36328125" customWidth="1"/>
     <col min="3" max="3" width="15.90625" customWidth="1"/>
-    <col min="4" max="5" width="14" customWidth="1"/>
-    <col min="6" max="6" width="13.6328125" customWidth="1"/>
-    <col min="7" max="7" width="16.453125" customWidth="1"/>
+    <col min="4" max="4" width="16.453125" customWidth="1"/>
+    <col min="5" max="5" width="21.54296875" customWidth="1"/>
+    <col min="6" max="6" width="15.7265625" customWidth="1"/>
+    <col min="7" max="7" width="24.36328125" customWidth="1"/>
+    <col min="8" max="8" width="21.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="3" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -497,11 +516,14 @@
       <c r="G1" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G2" s="1"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G4" s="1"/>
     </row>
   </sheetData>
